--- a/Project_2021147510/jobPlanetData700.xlsx
+++ b/Project_2021147510/jobPlanetData700.xlsx
@@ -6462,19 +6462,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6530,10 +6524,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">

--- a/Project_2021147510/jobPlanetData700.xlsx
+++ b/Project_2021147510/jobPlanetData700.xlsx
@@ -7663,7 +7663,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3">
         <v>24</v>
       </c>
